--- a/src/config/Tax_receipt_form.xlsx
+++ b/src/config/Tax_receipt_form.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="34">
   <si>
     <t>รายการ</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>01/06/2019</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -825,7 +828,7 @@
         <v>15</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>

--- a/src/config/Tax_receipt_form.xlsx
+++ b/src/config/Tax_receipt_form.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tubtim\Documents\GitHub\Tax-Receipt\src\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OS\Documents\GitHub\Tax-Receipt\src\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FE3CDB-7279-4BA9-9893-7D4A7DB52529}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{A312CFBA-0A3B-4DEB-B8C8-10767373C919}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>รายการ</t>
   </si>
@@ -84,12 +83,6 @@
     <t>ชำระสินค้าโดย :</t>
   </si>
   <si>
-    <t>ลงชื่อ............................................................ผู้รับสินค้า</t>
-  </si>
-  <si>
-    <t>ลงชื่อ............................................................ผู้รับเงิน</t>
-  </si>
-  <si>
     <t>วันที่........................................</t>
   </si>
   <si>
@@ -111,12 +104,6 @@
     <t>58010866</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>19/01/2562</t>
-  </si>
-  <si>
     <t>30.00</t>
   </si>
   <si>
@@ -127,18 +114,26 @@
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>ลงชื่อ..................................ผู้ส่งของ</t>
+  </si>
+  <si>
+    <t>ลงชื่อ..................................ผู้รับเงิน</t>
+  </si>
+  <si>
+    <t>ลงชื่อ..................................ผู้รับของ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -196,7 +191,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -303,6 +298,15 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -371,12 +375,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -386,39 +414,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -729,28 +733,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B528EB36-30A8-40F0-A653-EFB09B039479}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:F21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37:D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="6.875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="14.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="4" width="21.25" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="6" width="9.625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="4" width="10.125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="4" width="17.625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="4" width="6.75" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="4" width="9.25" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="4" width="10.625" collapsed="true"/>
-    <col min="10" max="16384" style="4" width="9.125" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.28515625" style="6" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18" style="4" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="6.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.5703125" style="4" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="4" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="18.75">
       <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
@@ -759,7 +763,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="18.75">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -768,7 +772,7 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="18.75">
       <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
@@ -777,7 +781,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="18.75">
       <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
@@ -786,7 +790,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="3" customFormat="1" ht="15.75">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -794,20 +798,20 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="41" t="s">
+    <row r="6" spans="1:9" ht="20.25">
+      <c r="A6" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="3" customFormat="1" ht="15.75">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -815,12 +819,12 @@
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="20.25">
       <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="8"/>
@@ -828,47 +832,47 @@
         <v>15</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="20.25">
       <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="20.25">
       <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="3" customFormat="1" ht="15.75">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -876,14 +880,14 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="20.25">
       <c r="A12" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="35"/>
+      <c r="C12" s="30"/>
       <c r="D12" s="17" t="s">
         <v>1</v>
       </c>
@@ -897,33 +901,33 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="20.25">
       <c r="A13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>25</v>
-      </c>
       <c r="D13" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="20.25">
       <c r="A14" s="18"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="38"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="24"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
@@ -931,10 +935,10 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="20.25">
       <c r="A15" s="18"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
       <c r="D15" s="24"/>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
@@ -942,10 +946,10 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="20.25">
       <c r="A16" s="18"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="28"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="41"/>
       <c r="D16" s="24"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
@@ -953,10 +957,10 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="20.25">
       <c r="A17" s="18"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="28"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="41"/>
       <c r="D17" s="24"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
@@ -964,10 +968,10 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="20.25">
       <c r="A18" s="18"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="28"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="41"/>
       <c r="D18" s="24"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
@@ -975,10 +979,10 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="20.25">
       <c r="A19" s="18"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="38"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="24"/>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
@@ -986,10 +990,10 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="20.25">
       <c r="A20" s="18"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="28"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="41"/>
       <c r="D20" s="24"/>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
@@ -997,10 +1001,10 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="20.25">
       <c r="A21" s="18"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="28"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="41"/>
       <c r="D21" s="24"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
@@ -1008,10 +1012,10 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="20.25">
       <c r="A22" s="18"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="38"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="24"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
@@ -1019,10 +1023,10 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="20.25">
       <c r="A23" s="18"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="38"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="24"/>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
@@ -1030,10 +1034,10 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="20.25">
       <c r="A24" s="18"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="38"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="24"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
@@ -1041,10 +1045,10 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="20.25">
       <c r="A25" s="18"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="38"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="24"/>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
@@ -1052,10 +1056,10 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="20.25">
       <c r="A26" s="18"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="38"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="24"/>
       <c r="E26" s="21"/>
       <c r="F26" s="21"/>
@@ -1063,10 +1067,10 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="20.25">
       <c r="A27" s="18"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="38"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="24"/>
       <c r="E27" s="21"/>
       <c r="F27" s="21"/>
@@ -1074,10 +1078,10 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="20.25">
       <c r="A28" s="18"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="38"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="24"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
@@ -1085,10 +1089,10 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="20.25">
       <c r="A29" s="19"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="33"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="28"/>
       <c r="D29" s="25"/>
       <c r="E29" s="22"/>
       <c r="F29" s="22"/>
@@ -1096,46 +1100,46 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="20.25">
       <c r="A30" s="18"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
-      <c r="D30" s="36" t="s">
+      <c r="D30" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="36"/>
+      <c r="E30" s="32"/>
       <c r="F30" s="26"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="20.25">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
       <c r="C31" s="14"/>
-      <c r="D31" s="31" t="s">
+      <c r="D31" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E31" s="31"/>
+      <c r="E31" s="39"/>
       <c r="F31" s="10"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="34"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="31" t="s">
+    <row r="32" spans="1:9" ht="20.25">
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="E32" s="31"/>
+      <c r="E32" s="39"/>
       <c r="F32" s="10"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="20.25">
       <c r="A33" s="15" t="s">
         <v>18</v>
       </c>
@@ -1148,7 +1152,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="20.25">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="C34" s="7"/>
@@ -1159,7 +1163,7 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="20.25">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="16"/>
@@ -1170,37 +1174,41 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
+    <row r="36" spans="1:9" ht="20.25">
+      <c r="A36" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" s="37"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A37" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
+    <row r="37" spans="1:9" ht="20.25">
+      <c r="A37" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" s="38"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="20.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1211,7 +1219,7 @@
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="20.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1222,7 +1230,7 @@
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="20.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1233,7 +1241,7 @@
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="20.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1244,7 +1252,7 @@
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="20.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1255,7 +1263,7 @@
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="20.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1266,7 +1274,7 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="20.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1274,7 +1282,7 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="20.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1282,7 +1290,7 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="20.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1290,7 +1298,7 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="20.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1298,7 +1306,7 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="20.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1306,7 +1314,7 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="20.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1315,7 +1323,20 @@
       <c r="F49" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="29">
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="A32:C32"/>
     <mergeCell ref="B12:C12"/>
@@ -1331,12 +1352,7 @@
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B15:C15"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/src/config/Tax_receipt_form.xlsx
+++ b/src/config/Tax_receipt_form.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OS\Documents\GitHub\Tax-Receipt\src\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Patthawee/Desktop/Tax-Receipt/src/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DB63C8-7E02-5042-9615-220CCCB7AEE6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="12160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="51">
   <si>
     <t>รายการ</t>
   </si>
@@ -86,33 +87,12 @@
     <t>วันที่........................................</t>
   </si>
   <si>
-    <t>ภีมรจรัษ  ณควัชรภาณิชภูษิตนิกรโยธิน</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>snack</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
-    <t>ตึก ECC</t>
-  </si>
-  <si>
-    <t>58010866</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>01/06/2019</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -123,13 +103,89 @@
   </si>
   <si>
     <t>ลงชื่อ..................................ผู้รับของ</t>
+  </si>
+  <si>
+    <t>02/06/2019</t>
+  </si>
+  <si>
+    <t>Patthawee Chumpuvorn</t>
+  </si>
+  <si>
+    <t>พรม</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>หลังคา</t>
+  </si>
+  <si>
+    <t>14.00</t>
+  </si>
+  <si>
+    <t>แผ่นปูพื้น</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>1 prakpak bangsaphannoi prajuabkirikhan</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>480.00</t>
+  </si>
+  <si>
+    <t>neen</t>
+  </si>
+  <si>
+    <t>LnwZa</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>507.00</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>4200.00</t>
+  </si>
+  <si>
+    <t>ทำอะไรก็ได้กูไม่ได้ขอตังใคร้</t>
+  </si>
+  <si>
+    <t>เงินสด</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -375,11 +431,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -393,32 +452,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -733,28 +786,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37:D37"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" style="6" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18" style="4" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="6.7109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.5703125" style="4" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.140625" style="4" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="4" width="6.83203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="18.83203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="21.5" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="6" width="10.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="4" width="10.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="4" width="18.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="4" width="6.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="4" width="9.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="4" width="10.5" collapsed="true"/>
+    <col min="10" max="16384" style="4" width="9.1640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="18.75">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
@@ -763,7 +816,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="18.75">
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -772,7 +825,7 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="18.75">
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
@@ -781,7 +834,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" ht="18.75">
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
@@ -790,7 +843,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" ht="15.75">
+    <row r="5" spans="1:9" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -798,20 +851,20 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:9" ht="20.25">
-      <c r="A6" s="31" t="s">
+    <row r="6" spans="1:9" ht="20" x14ac:dyDescent="0.2">
+      <c r="A6" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" s="3" customFormat="1" ht="15.75">
+    <row r="7" spans="1:9" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -819,12 +872,12 @@
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:9" ht="20.25">
+    <row r="8" spans="1:9" ht="20" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="8"/>
@@ -832,18 +885,18 @@
         <v>15</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="20.25">
+    <row r="9" spans="1:9" ht="20" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
@@ -853,26 +906,24 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" ht="20.25">
+    <row r="10" spans="1:9" ht="20" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="7" t="s">
-        <v>25</v>
-      </c>
+      <c r="C10" s="7"/>
       <c r="D10" s="8"/>
       <c r="E10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" s="3" customFormat="1" ht="15.75">
+    <row r="11" spans="1:9" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -880,14 +931,14 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:9" ht="20.25">
+    <row r="12" spans="1:9" ht="20" x14ac:dyDescent="0.15">
       <c r="A12" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="30"/>
+      <c r="C12" s="31"/>
       <c r="D12" s="17" t="s">
         <v>1</v>
       </c>
@@ -901,66 +952,96 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="20.25">
+    <row r="13" spans="1:9" ht="20" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>23</v>
-      </c>
       <c r="D13" s="23" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="20.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
+    <row r="14" spans="1:9" ht="20" x14ac:dyDescent="0.2">
+      <c r="A14" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="37"/>
+      <c r="D14" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>48</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" ht="20.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
+    <row r="15" spans="1:9" ht="20" x14ac:dyDescent="0.2">
+      <c r="A15" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="38"/>
+      <c r="D15" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>46</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" ht="20.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
+    <row r="16" spans="1:9" ht="20" x14ac:dyDescent="0.2">
+      <c r="A16" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="38"/>
+      <c r="D16" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>48</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" ht="20.25">
+    <row r="17" spans="1:9" ht="20" x14ac:dyDescent="0.2">
       <c r="A17" s="18"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="41"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="38"/>
       <c r="D17" s="24"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
@@ -968,10 +1049,10 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" ht="20.25">
+    <row r="18" spans="1:9" ht="20" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="41"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="38"/>
       <c r="D18" s="24"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
@@ -979,10 +1060,10 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" ht="20.25">
+    <row r="19" spans="1:9" ht="20" x14ac:dyDescent="0.2">
       <c r="A19" s="18"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="34"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="24"/>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
@@ -990,10 +1071,10 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" ht="20.25">
+    <row r="20" spans="1:9" ht="20" x14ac:dyDescent="0.2">
       <c r="A20" s="18"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="41"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="38"/>
       <c r="D20" s="24"/>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
@@ -1001,10 +1082,10 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" ht="20.25">
+    <row r="21" spans="1:9" ht="20" x14ac:dyDescent="0.2">
       <c r="A21" s="18"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="38"/>
       <c r="D21" s="24"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
@@ -1012,10 +1093,10 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" ht="20.25">
+    <row r="22" spans="1:9" ht="20" x14ac:dyDescent="0.2">
       <c r="A22" s="18"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="34"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="24"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
@@ -1023,10 +1104,10 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" ht="20.25">
+    <row r="23" spans="1:9" ht="20" x14ac:dyDescent="0.2">
       <c r="A23" s="18"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="34"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="24"/>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
@@ -1034,10 +1115,10 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" ht="20.25">
+    <row r="24" spans="1:9" ht="20" x14ac:dyDescent="0.2">
       <c r="A24" s="18"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="34"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="24"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
@@ -1045,10 +1126,10 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" ht="20.25">
+    <row r="25" spans="1:9" ht="20" x14ac:dyDescent="0.2">
       <c r="A25" s="18"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="34"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="24"/>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
@@ -1056,10 +1137,10 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" ht="20.25">
+    <row r="26" spans="1:9" ht="20" x14ac:dyDescent="0.2">
       <c r="A26" s="18"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="34"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="24"/>
       <c r="E26" s="21"/>
       <c r="F26" s="21"/>
@@ -1067,10 +1148,10 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" ht="20.25">
+    <row r="27" spans="1:9" ht="20" x14ac:dyDescent="0.2">
       <c r="A27" s="18"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="34"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="24"/>
       <c r="E27" s="21"/>
       <c r="F27" s="21"/>
@@ -1078,10 +1159,10 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" ht="20.25">
+    <row r="28" spans="1:9" ht="20" x14ac:dyDescent="0.2">
       <c r="A28" s="18"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="34"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="24"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
@@ -1089,10 +1170,10 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" ht="20.25">
+    <row r="29" spans="1:9" ht="20" x14ac:dyDescent="0.2">
       <c r="A29" s="19"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="28"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="40"/>
       <c r="D29" s="25"/>
       <c r="E29" s="22"/>
       <c r="F29" s="22"/>
@@ -1100,51 +1181,53 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" ht="20.25">
+    <row r="30" spans="1:9" ht="20" x14ac:dyDescent="0.2">
       <c r="A30" s="18"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
-      <c r="D30" s="32" t="s">
+      <c r="D30" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="32"/>
+      <c r="E30" s="33"/>
       <c r="F30" s="26"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" ht="20.25">
+    <row r="31" spans="1:9" ht="20" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
       <c r="C31" s="14"/>
-      <c r="D31" s="39" t="s">
+      <c r="D31" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E31" s="39"/>
+      <c r="E31" s="27"/>
       <c r="F31" s="10"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9" ht="20.25">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="39" t="s">
+    <row r="32" spans="1:9" ht="20" x14ac:dyDescent="0.2">
+      <c r="A32" s="30"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E32" s="39"/>
+      <c r="E32" s="27"/>
       <c r="F32" s="10"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" ht="20.25">
+    <row r="33" spans="1:9" ht="20" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B33" s="15"/>
-      <c r="C33" s="7"/>
+      <c r="C33" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="D33" s="8"/>
       <c r="E33" s="14"/>
       <c r="F33" s="8"/>
@@ -1152,7 +1235,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" ht="20.25">
+    <row r="34" spans="1:9" ht="20" x14ac:dyDescent="0.2">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="C34" s="7"/>
@@ -1163,7 +1246,7 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9" ht="20.25">
+    <row r="35" spans="1:9" ht="20" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="16"/>
@@ -1174,41 +1257,41 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" ht="20.25">
-      <c r="A36" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="F36" s="37"/>
+    <row r="36" spans="1:9" ht="20" x14ac:dyDescent="0.2">
+      <c r="A36" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="28"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9" ht="20.25">
-      <c r="A37" s="38" t="s">
+    <row r="37" spans="1:9" ht="20" x14ac:dyDescent="0.2">
+      <c r="A37" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38" t="s">
+      <c r="B37" s="29"/>
+      <c r="C37" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38" t="s">
+      <c r="D37" s="29"/>
+      <c r="E37" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F37" s="38"/>
+      <c r="F37" s="29"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:9" ht="20.25">
+    <row r="38" spans="1:9" ht="20" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1219,7 +1302,7 @@
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:9" ht="20.25">
+    <row r="39" spans="1:9" ht="20" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1230,7 +1313,7 @@
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:9" ht="20.25">
+    <row r="40" spans="1:9" ht="20" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1241,7 +1324,7 @@
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="1:9" ht="20.25">
+    <row r="41" spans="1:9" ht="20" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1252,7 +1335,7 @@
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:9" ht="20.25">
+    <row r="42" spans="1:9" ht="20" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1263,7 +1346,7 @@
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="1:9" ht="20.25">
+    <row r="43" spans="1:9" ht="20" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1274,7 +1357,7 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:9" ht="20.25">
+    <row r="44" spans="1:9" ht="20" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1282,7 +1365,7 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:9" ht="20.25">
+    <row r="45" spans="1:9" ht="20" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1290,7 +1373,7 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:9" ht="20.25">
+    <row r="46" spans="1:9" ht="20" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1298,7 +1381,7 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:9" ht="20.25">
+    <row r="47" spans="1:9" ht="20" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1306,7 +1389,7 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:9" ht="20.25">
+    <row r="48" spans="1:9" ht="20" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1314,7 +1397,7 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6" ht="20.25">
+    <row r="49" spans="1:6" ht="20" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1324,19 +1407,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="A32:C32"/>
     <mergeCell ref="B12:C12"/>
@@ -1353,6 +1423,19 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/src/config/Tax_receipt_form.xlsx
+++ b/src/config/Tax_receipt_form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Patthawee/Desktop/Tax-Receipt/src/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DB63C8-7E02-5042-9615-220CCCB7AEE6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B183B4-7FF8-324E-88A5-4C70FF68D93A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="12160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="55">
   <si>
     <t>รายการ</t>
   </si>
@@ -108,9 +108,6 @@
     <t>02/06/2019</t>
   </si>
   <si>
-    <t>Patthawee Chumpuvorn</t>
-  </si>
-  <si>
     <t>พรม</t>
   </si>
   <si>
@@ -135,49 +132,64 @@
     <t>120.00</t>
   </si>
   <si>
-    <t>1 prakpak bangsaphannoi prajuabkirikhan</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
-    <t>480.00</t>
-  </si>
-  <si>
     <t>neen</t>
   </si>
   <si>
-    <t>LnwZa</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>507.00</t>
-  </si>
-  <si>
     <t>21</t>
   </si>
   <si>
     <t>4200.00</t>
   </si>
   <si>
-    <t>ทำอะไรก็ได้กูไม่ได้ขอตังใคร้</t>
-  </si>
-  <si>
     <t>เงินสด</t>
+  </si>
+  <si>
+    <t>kaka</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>257.05</t>
+  </si>
+  <si>
+    <t>18.55</t>
+  </si>
+  <si>
+    <t>265.00</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>992.31</t>
+  </si>
+  <si>
+    <t>74.69</t>
+  </si>
+  <si>
+    <t>1067.00</t>
+  </si>
+  <si>
+    <t>ตังแม่</t>
   </si>
 </sst>
 </file>
@@ -431,6 +443,39 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -439,39 +484,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -789,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:C16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -852,14 +864,14 @@
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -877,7 +889,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="8"/>
@@ -885,7 +897,7 @@
         <v>15</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -896,7 +908,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
@@ -935,10 +947,10 @@
       <c r="A12" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="31"/>
+      <c r="C12" s="30"/>
       <c r="D12" s="17" t="s">
         <v>1</v>
       </c>
@@ -956,20 +968,20 @@
       <c r="A13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="35" t="s">
+      <c r="B13" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="36" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -979,18 +991,18 @@
       <c r="A14" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="34"/>
+      <c r="D14" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>29</v>
-      </c>
       <c r="F14" s="21" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -1000,18 +1012,18 @@
       <c r="A15" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="37"/>
+      <c r="D15" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>33</v>
-      </c>
       <c r="F15" s="21" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -1019,17 +1031,17 @@
     </row>
     <row r="16" spans="1:9" ht="20" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="38"/>
+        <v>48</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="37"/>
       <c r="D16" s="24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="F16" s="21" t="s">
         <v>48</v>
@@ -1039,144 +1051,274 @@
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
+      <c r="A17" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="37"/>
+      <c r="D17" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>48</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
+      <c r="A18" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="37"/>
+      <c r="D18" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>48</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
+      <c r="A19" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="34"/>
+      <c r="D19" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>48</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
+      <c r="A20" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="37"/>
+      <c r="D20" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>48</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
+      <c r="A21" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="37"/>
+      <c r="D21" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>48</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
+      <c r="A22" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="34"/>
+      <c r="D22" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>48</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
+      <c r="A23" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="34"/>
+      <c r="D23" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>48</v>
+      </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
+      <c r="A24" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="34"/>
+      <c r="D24" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>48</v>
+      </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
+      <c r="A25" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="34"/>
+      <c r="D25" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>48</v>
+      </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
+      <c r="A26" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="34"/>
+      <c r="D26" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>48</v>
+      </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
+      <c r="A27" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="34"/>
+      <c r="D27" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>48</v>
+      </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
+      <c r="A28" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="34"/>
+      <c r="D28" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>48</v>
+      </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A29" s="19"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
+      <c r="A29" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="28"/>
+      <c r="D29" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>48</v>
+      </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -1185,11 +1327,13 @@
       <c r="A30" s="18"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
-      <c r="D30" s="33" t="s">
+      <c r="D30" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="33"/>
-      <c r="F30" s="26"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="26" t="s">
+        <v>51</v>
+      </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -1198,24 +1342,28 @@
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
       <c r="C31" s="14"/>
-      <c r="D31" s="27" t="s">
+      <c r="D31" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E31" s="27"/>
-      <c r="F31" s="10"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="27" t="s">
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="E32" s="27"/>
-      <c r="F32" s="10"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -1226,7 +1374,7 @@
       </c>
       <c r="B33" s="15"/>
       <c r="C33" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="14"/>
@@ -1258,35 +1406,35 @@
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28" t="s">
+      <c r="B36" s="39"/>
+      <c r="C36" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28" t="s">
+      <c r="D36" s="39"/>
+      <c r="E36" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="F36" s="28"/>
+      <c r="F36" s="39"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29" t="s">
+      <c r="B37" s="40"/>
+      <c r="C37" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29" t="s">
+      <c r="D37" s="40"/>
+      <c r="E37" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="F37" s="29"/>
+      <c r="F37" s="40"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -1407,6 +1555,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="A32:C32"/>
     <mergeCell ref="B12:C12"/>
@@ -1423,19 +1584,6 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/src/config/Tax_receipt_form.xlsx
+++ b/src/config/Tax_receipt_form.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Patthawee/Desktop/Tax-Receipt/src/config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OS\Documents\GitHub\Tax-Receipt\src\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B183B4-7FF8-324E-88A5-4C70FF68D93A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="12160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="12165"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="43">
   <si>
     <t>รายการ</t>
   </si>
@@ -105,9 +104,6 @@
     <t>ลงชื่อ..................................ผู้รับของ</t>
   </si>
   <si>
-    <t>02/06/2019</t>
-  </si>
-  <si>
     <t>พรม</t>
   </si>
   <si>
@@ -126,48 +122,9 @@
     <t>39.00</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>neen</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>4200.00</t>
-  </si>
-  <si>
-    <t>เงินสด</t>
-  </si>
-  <si>
-    <t>kaka</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>28.00</t>
   </si>
   <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>257.05</t>
-  </si>
-  <si>
-    <t>18.55</t>
-  </si>
-  <si>
-    <t>265.00</t>
-  </si>
-  <si>
     <t>17</t>
   </si>
   <si>
@@ -190,14 +147,19 @@
   </si>
   <si>
     <t>ตังแม่</t>
+  </si>
+  <si>
+    <t>เก้าสิบเก้าล้านเก้าแสนเก้าหมื่นเก้าพันเก้าร้อยเก้าสิบเก้าบาทเก้าสิบเก้าสตางค์</t>
+  </si>
+  <si>
+    <t>02/06/2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,7 +221,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -377,11 +339,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -443,6 +427,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -461,9 +460,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -473,16 +469,61 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -798,792 +839,857 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:C29"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="6.83203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="18.83203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="4" width="21.5" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="6" width="10.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="4" width="10.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="4" width="18.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="4" width="6.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="4" width="9.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="4" width="10.5" collapsed="true"/>
-    <col min="10" max="16384" style="4" width="9.1640625" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.28515625" style="6" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.140625" style="4" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="6.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="11" max="16384" width="9.140625" style="4" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="18.75">
+      <c r="A1" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="18.75">
+      <c r="A2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="18.75">
+      <c r="A3" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="18.75">
+      <c r="A4" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="52"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" s="3" customFormat="1" ht="15.75">
+      <c r="A5" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="52" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="20.25">
+      <c r="A6" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A6" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="2"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="54"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" s="3" customFormat="1" ht="15.75">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" ht="20.25">
+      <c r="A8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="2"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="57"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" ht="20.25">
+      <c r="A9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="2"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="59"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="20.25">
+      <c r="A10" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="2"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="61"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" s="3" customFormat="1" ht="15.75">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
       <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" ht="20" x14ac:dyDescent="0.15">
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" ht="20.25">
       <c r="A12" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="17" t="s">
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="F12" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="G12" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:9" ht="20" x14ac:dyDescent="0.2">
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" ht="20.25">
       <c r="A13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="2"/>
+      <c r="G13" s="20" t="s">
+        <v>32</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" ht="20" x14ac:dyDescent="0.2">
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" ht="20.25">
       <c r="A14" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" s="2"/>
+      <c r="G14" s="21" t="s">
+        <v>36</v>
+      </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" ht="20" x14ac:dyDescent="0.2">
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" ht="20.25">
       <c r="A15" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="38"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="2"/>
+      <c r="G15" s="21" t="s">
+        <v>31</v>
+      </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" ht="20" x14ac:dyDescent="0.2">
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" ht="20.25">
       <c r="A16" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>48</v>
+        <v>34</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="38"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" ht="20" x14ac:dyDescent="0.2">
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" ht="20.25">
       <c r="A17" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>48</v>
+        <v>34</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="38"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" ht="20" x14ac:dyDescent="0.2">
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" ht="20.25">
       <c r="A18" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>48</v>
+        <v>34</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="38"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" ht="20" x14ac:dyDescent="0.2">
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" ht="20.25">
       <c r="A19" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>48</v>
+        <v>34</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" ht="20" x14ac:dyDescent="0.2">
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" ht="20.25">
       <c r="A20" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>48</v>
+        <v>34</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="38"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" ht="20" x14ac:dyDescent="0.2">
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" ht="20.25">
       <c r="A21" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>48</v>
+        <v>34</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="38"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" ht="20" x14ac:dyDescent="0.2">
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" ht="20.25">
       <c r="A22" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>48</v>
+        <v>34</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" ht="20" x14ac:dyDescent="0.2">
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" ht="20.25">
       <c r="A23" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>48</v>
+        <v>34</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" ht="20" x14ac:dyDescent="0.2">
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" ht="20.25">
       <c r="A24" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>48</v>
+        <v>34</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="G24" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" ht="20" x14ac:dyDescent="0.2">
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" ht="20.25">
       <c r="A25" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>48</v>
+        <v>34</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="G25" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:9" ht="20" x14ac:dyDescent="0.2">
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" ht="20.25">
       <c r="A26" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="34"/>
-      <c r="D26" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>48</v>
+        <v>34</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="G26" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" ht="20" x14ac:dyDescent="0.2">
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" ht="20.25">
       <c r="A27" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="34"/>
-      <c r="D27" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>48</v>
+        <v>34</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="G27" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" ht="20" x14ac:dyDescent="0.2">
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" ht="20.25">
       <c r="A28" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>48</v>
+        <v>34</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="G28" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9" ht="20" x14ac:dyDescent="0.2">
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" ht="20.25">
       <c r="A29" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>48</v>
+        <v>34</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="25" t="s">
+        <v>34</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="G29" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>34</v>
+      </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:9" ht="20" x14ac:dyDescent="0.2">
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" ht="20.25">
       <c r="A30" s="18"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
-      <c r="D30" s="32" t="s">
+      <c r="D30" s="7"/>
+      <c r="E30" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="32"/>
-      <c r="F30" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="G30" s="2"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="26" t="s">
+        <v>37</v>
+      </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="1:9" ht="20" x14ac:dyDescent="0.2">
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" ht="20.25">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="38" t="s">
+      <c r="C31" s="13"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E31" s="38"/>
-      <c r="F31" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G31" s="2"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="38" t="s">
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:10" ht="20.25">
+      <c r="A32" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E32" s="38"/>
-      <c r="F32" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G32" s="2"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="1:9" ht="20" x14ac:dyDescent="0.2">
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:10" ht="20.25">
       <c r="A33" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B33" s="15"/>
       <c r="C33" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="8"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="1:9" ht="20" x14ac:dyDescent="0.2">
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="1:10" ht="20.25">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="8"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="7"/>
       <c r="E34" s="8"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="2"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="7"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="1:9" ht="20" x14ac:dyDescent="0.2">
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="1:10" ht="20.25">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="2"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="8"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A36" s="39" t="s">
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="1:10" ht="20.25">
+      <c r="A36" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39" t="s">
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39" t="s">
+      <c r="E36" s="30"/>
+      <c r="F36" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="F36" s="39"/>
-      <c r="G36" s="2"/>
+      <c r="G36" s="30"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A37" s="40" t="s">
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="1:10" ht="20.25">
+      <c r="A37" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="40"/>
-      <c r="C37" s="40" t="s">
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="40"/>
-      <c r="E37" s="40" t="s">
+      <c r="E37" s="31"/>
+      <c r="F37" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="F37" s="40"/>
-      <c r="G37" s="2"/>
+      <c r="G37" s="31"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="1:9" ht="20" x14ac:dyDescent="0.2">
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="1:10" ht="20.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="5"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="1:9" ht="20" x14ac:dyDescent="0.2">
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="1:10" ht="20.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="5"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
-    </row>
-    <row r="40" spans="1:9" ht="20" x14ac:dyDescent="0.2">
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="1:10" ht="20.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="5"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="1:9" ht="20" x14ac:dyDescent="0.2">
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="1:10" ht="20.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="5"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="1:9" ht="20" x14ac:dyDescent="0.2">
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="1:10" ht="20.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="5"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
-    </row>
-    <row r="43" spans="1:9" ht="20" x14ac:dyDescent="0.2">
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="1:10" ht="20.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="5"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
-    </row>
-    <row r="44" spans="1:9" ht="20" x14ac:dyDescent="0.2">
+      <c r="J43" s="2"/>
+    </row>
+    <row r="44" spans="1:10" ht="20.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="5"/>
       <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="1:9" ht="20" x14ac:dyDescent="0.2">
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:10" ht="20.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="5"/>
       <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="1:9" ht="20" x14ac:dyDescent="0.2">
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="1:10" ht="20.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="5"/>
       <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="1:9" ht="20" x14ac:dyDescent="0.2">
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="1:10" ht="20.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="5"/>
       <c r="F47" s="2"/>
-    </row>
-    <row r="48" spans="1:9" ht="20" x14ac:dyDescent="0.2">
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="1:10" ht="20.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="5"/>
       <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="1:7" ht="20.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="5"/>
       <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B15:C15"/>
+  <mergeCells count="36">
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/src/config/Tax_receipt_form.xlsx
+++ b/src/config/Tax_receipt_form.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OS\Documents\GitHub\Tax-Receipt\src\config\"/>
     </mc:Choice>
@@ -16,7 +16,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4391" uniqueCount="136">
   <si>
     <t>รายการ</t>
   </si>
@@ -153,12 +153,292 @@
   </si>
   <si>
     <t>02/06/2020</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>02/06/2019</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>297.60</t>
+  </si>
+  <si>
+    <t>22.40</t>
+  </si>
+  <si>
+    <t>320.00</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>186.00</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>483.60</t>
+  </si>
+  <si>
+    <t>36.40</t>
+  </si>
+  <si>
+    <t>520.00</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>817.47</t>
+  </si>
+  <si>
+    <t>61.53</t>
+  </si>
+  <si>
+    <t>879.00</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>310.62</t>
+  </si>
+  <si>
+    <t>23.38</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>595.20</t>
+  </si>
+  <si>
+    <t>44.80</t>
+  </si>
+  <si>
+    <t>640.00</t>
+  </si>
+  <si>
+    <t>706.80</t>
+  </si>
+  <si>
+    <t>53.20</t>
+  </si>
+  <si>
+    <t>760.00</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>316.20</t>
+  </si>
+  <si>
+    <t>23.80</t>
+  </si>
+  <si>
+    <t>340.00</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>372.00</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>594.27</t>
+  </si>
+  <si>
+    <t>44.73</t>
+  </si>
+  <si>
+    <t>639.00</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>111.60</t>
+  </si>
+  <si>
+    <t>8.40</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>ทดอีก</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>93.93</t>
+  </si>
+  <si>
+    <t>7.07</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>ทดสอบ</t>
+  </si>
+  <si>
+    <t>131.00</t>
+  </si>
+  <si>
+    <t>121.83</t>
+  </si>
+  <si>
+    <t>9.17</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>หน่วย</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>19.53</t>
+  </si>
+  <si>
+    <t>1.47</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>113.46</t>
+  </si>
+  <si>
+    <t>8.54</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>149.73</t>
+  </si>
+  <si>
+    <t>11.27</t>
+  </si>
+  <si>
+    <t>161.00</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>again</t>
+  </si>
+  <si>
+    <t>300021.00</t>
+  </si>
+  <si>
+    <t>279019.53</t>
+  </si>
+  <si>
+    <t>21001.47</t>
+  </si>
+  <si>
+    <t>again1</t>
+  </si>
+  <si>
+    <t>201030.00</t>
+  </si>
+  <si>
+    <t>186957.90</t>
+  </si>
+  <si>
+    <t>14072.10</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>222.27</t>
+  </si>
+  <si>
+    <t>16.73</t>
+  </si>
+  <si>
+    <t>239.00</t>
+  </si>
+  <si>
+    <t>สองร้อยสามสิบเก้า</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -848,17 +1128,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12" style="4" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.28515625" style="6" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.140625" style="4" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="6.7109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="9.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="9.140625" style="4" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="4" width="6.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="12.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="10.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="19.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="6" width="10.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="4" width="10.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="4" width="17.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="4" width="6.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="4" width="9.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="4" width="10.42578125" collapsed="true"/>
+    <col min="11" max="16384" style="4" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="18.75">
@@ -893,7 +1173,7 @@
         <v>15</v>
       </c>
       <c r="G3" s="51" t="s">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="I3" s="7"/>
     </row>
@@ -921,7 +1201,7 @@
         <v>14</v>
       </c>
       <c r="G5" s="52" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.25">
@@ -952,12 +1232,14 @@
         <v>11</v>
       </c>
       <c r="B8" s="56" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C8" s="56"/>
       <c r="D8" s="56"/>
       <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
+      <c r="F8" s="56" t="s">
+        <v>62</v>
+      </c>
       <c r="G8" s="57"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -968,7 +1250,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="58" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C9" s="58"/>
       <c r="D9" s="58"/>
@@ -987,7 +1269,9 @@
       <c r="C10" s="60"/>
       <c r="D10" s="60"/>
       <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
+      <c r="F10" s="60" t="s">
+        <v>44</v>
+      </c>
       <c r="G10" s="61"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -1029,20 +1313,20 @@
         <v>20</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="40"/>
       <c r="D13" s="40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -1053,18 +1337,20 @@
         <v>21</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
+      <c r="D14" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="E14" s="24" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -1072,21 +1358,23 @@
     </row>
     <row r="15" spans="1:10" ht="20.25">
       <c r="A15" s="18" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C15" s="38"/>
-      <c r="D15" s="28"/>
+      <c r="D15" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="E15" s="24" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -1100,7 +1388,9 @@
         <v>34</v>
       </c>
       <c r="C16" s="38"/>
-      <c r="D16" s="28"/>
+      <c r="D16" s="28" t="s">
+        <v>34</v>
+      </c>
       <c r="E16" s="24" t="s">
         <v>34</v>
       </c>
@@ -1122,7 +1412,9 @@
         <v>34</v>
       </c>
       <c r="C17" s="38"/>
-      <c r="D17" s="28"/>
+      <c r="D17" s="28" t="s">
+        <v>34</v>
+      </c>
       <c r="E17" s="24" t="s">
         <v>34</v>
       </c>
@@ -1144,7 +1436,9 @@
         <v>34</v>
       </c>
       <c r="C18" s="38"/>
-      <c r="D18" s="28"/>
+      <c r="D18" s="28" t="s">
+        <v>34</v>
+      </c>
       <c r="E18" s="24" t="s">
         <v>34</v>
       </c>
@@ -1166,7 +1460,9 @@
         <v>34</v>
       </c>
       <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
+      <c r="D19" s="38" t="s">
+        <v>34</v>
+      </c>
       <c r="E19" s="24" t="s">
         <v>34</v>
       </c>
@@ -1188,7 +1484,9 @@
         <v>34</v>
       </c>
       <c r="C20" s="38"/>
-      <c r="D20" s="28"/>
+      <c r="D20" s="28" t="s">
+        <v>34</v>
+      </c>
       <c r="E20" s="24" t="s">
         <v>34</v>
       </c>
@@ -1210,7 +1508,9 @@
         <v>34</v>
       </c>
       <c r="C21" s="38"/>
-      <c r="D21" s="28"/>
+      <c r="D21" s="28" t="s">
+        <v>34</v>
+      </c>
       <c r="E21" s="24" t="s">
         <v>34</v>
       </c>
@@ -1232,7 +1532,9 @@
         <v>34</v>
       </c>
       <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
+      <c r="D22" s="38" t="s">
+        <v>34</v>
+      </c>
       <c r="E22" s="24" t="s">
         <v>34</v>
       </c>
@@ -1254,7 +1556,9 @@
         <v>34</v>
       </c>
       <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
+      <c r="D23" s="38" t="s">
+        <v>34</v>
+      </c>
       <c r="E23" s="24" t="s">
         <v>34</v>
       </c>
@@ -1276,7 +1580,9 @@
         <v>34</v>
       </c>
       <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
+      <c r="D24" s="38" t="s">
+        <v>34</v>
+      </c>
       <c r="E24" s="24" t="s">
         <v>34</v>
       </c>
@@ -1298,7 +1604,9 @@
         <v>34</v>
       </c>
       <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
+      <c r="D25" s="38" t="s">
+        <v>34</v>
+      </c>
       <c r="E25" s="24" t="s">
         <v>34</v>
       </c>
@@ -1320,7 +1628,9 @@
         <v>34</v>
       </c>
       <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
+      <c r="D26" s="38" t="s">
+        <v>34</v>
+      </c>
       <c r="E26" s="24" t="s">
         <v>34</v>
       </c>
@@ -1342,7 +1652,9 @@
         <v>34</v>
       </c>
       <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
+      <c r="D27" s="38" t="s">
+        <v>34</v>
+      </c>
       <c r="E27" s="24" t="s">
         <v>34</v>
       </c>
@@ -1364,7 +1676,9 @@
         <v>34</v>
       </c>
       <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
+      <c r="D28" s="38" t="s">
+        <v>34</v>
+      </c>
       <c r="E28" s="24" t="s">
         <v>34</v>
       </c>
@@ -1386,7 +1700,9 @@
         <v>34</v>
       </c>
       <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
+      <c r="D29" s="33" t="s">
+        <v>34</v>
+      </c>
       <c r="E29" s="25" t="s">
         <v>34</v>
       </c>
@@ -1408,9 +1724,11 @@
       <c r="E30" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="37"/>
+      <c r="F30" s="37" t="s">
+        <v>63</v>
+      </c>
       <c r="G30" s="26" t="s">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -1424,9 +1742,11 @@
       <c r="E31" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="29"/>
+      <c r="F31" s="29" t="s">
+        <v>64</v>
+      </c>
       <c r="G31" s="10" t="s">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -1434,7 +1754,7 @@
     </row>
     <row r="32" spans="1:10" ht="20.25">
       <c r="A32" s="34" t="s">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="B32" s="34"/>
       <c r="C32" s="34"/>
@@ -1442,9 +1762,11 @@
       <c r="E32" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F32" s="29"/>
+      <c r="F32" s="29" t="s">
+        <v>65</v>
+      </c>
       <c r="G32" s="10" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -1456,7 +1778,7 @@
       </c>
       <c r="B33" s="15"/>
       <c r="C33" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="8"/>

--- a/src/config/Tax_receipt_form.xlsx
+++ b/src/config/Tax_receipt_form.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4391" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4490" uniqueCount="140">
   <si>
     <t>รายการ</t>
   </si>
@@ -432,6 +432,18 @@
   </si>
   <si>
     <t>สองร้อยสามสิบเก้า</t>
+  </si>
+  <si>
+    <t>03/06/2019</t>
+  </si>
+  <si>
+    <t>36.27</t>
+  </si>
+  <si>
+    <t>2.73</t>
+  </si>
+  <si>
+    <t>สามสิบเก้าบาทถ้วน</t>
   </si>
 </sst>
 </file>
@@ -1173,7 +1185,7 @@
         <v>15</v>
       </c>
       <c r="G3" s="51" t="s">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="I3" s="7"/>
     </row>
@@ -1201,7 +1213,7 @@
         <v>14</v>
       </c>
       <c r="G5" s="52" t="s">
-        <v>44</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.25">
@@ -1313,7 +1325,7 @@
         <v>20</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C13" s="40"/>
       <c r="D13" s="40" t="s">
@@ -1323,10 +1335,10 @@
         <v>20</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -1334,23 +1346,23 @@
     </row>
     <row r="14" spans="1:10" ht="20.25">
       <c r="A14" s="18" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C14" s="38"/>
       <c r="D14" s="38" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -1728,7 +1740,7 @@
         <v>63</v>
       </c>
       <c r="G30" s="26" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -1746,7 +1758,7 @@
         <v>64</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -1754,7 +1766,7 @@
     </row>
     <row r="32" spans="1:10" ht="20.25">
       <c r="A32" s="34" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B32" s="34"/>
       <c r="C32" s="34"/>
@@ -1766,7 +1778,7 @@
         <v>65</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>134</v>
+        <v>31</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>

--- a/src/config/Tax_receipt_form.xlsx
+++ b/src/config/Tax_receipt_form.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4490" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4599" uniqueCount="147">
   <si>
     <t>รายการ</t>
   </si>
@@ -444,6 +444,27 @@
   </si>
   <si>
     <t>สามสิบเก้าบาทถ้วน</t>
+  </si>
+  <si>
+    <t>10/09/2019</t>
+  </si>
+  <si>
+    <t>280.00</t>
+  </si>
+  <si>
+    <t>3799.00</t>
+  </si>
+  <si>
+    <t>3829.74</t>
+  </si>
+  <si>
+    <t>288.26</t>
+  </si>
+  <si>
+    <t>4118.00</t>
+  </si>
+  <si>
+    <t>สี่พันหนึ่งร้อยหนึ่งสิบแปดบาทถ้วน</t>
   </si>
 </sst>
 </file>
@@ -1185,7 +1206,7 @@
         <v>15</v>
       </c>
       <c r="G3" s="51" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I3" s="7"/>
     </row>
@@ -1213,7 +1234,7 @@
         <v>14</v>
       </c>
       <c r="G5" s="52" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.25">
@@ -1325,20 +1346,20 @@
         <v>20</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C13" s="40"/>
       <c r="D13" s="40" t="s">
         <v>20</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>31</v>
+        <v>141</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -1346,23 +1367,23 @@
     </row>
     <row r="14" spans="1:10" ht="20.25">
       <c r="A14" s="18" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C14" s="38"/>
       <c r="D14" s="38" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -1370,23 +1391,23 @@
     </row>
     <row r="15" spans="1:10" ht="20.25">
       <c r="A15" s="18" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="C15" s="38"/>
       <c r="D15" s="28" t="s">
         <v>20</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>34</v>
+        <v>142</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -1740,7 +1761,7 @@
         <v>63</v>
       </c>
       <c r="G30" s="26" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -1758,7 +1779,7 @@
         <v>64</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -1766,7 +1787,7 @@
     </row>
     <row r="32" spans="1:10" ht="20.25">
       <c r="A32" s="34" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B32" s="34"/>
       <c r="C32" s="34"/>
@@ -1778,7 +1799,7 @@
         <v>65</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>31</v>
+        <v>145</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
